--- a/debate/SOA report 2021 quarterly mortality.xlsx
+++ b/debate/SOA report 2021 quarterly mortality.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\debate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67230B-125C-4E18-9FF5-949890931E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E4981-AA1B-48D8-A3FE-3C6010335F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SOA analysis" sheetId="3" r:id="rId1"/>
-    <sheet name="UCOD full US 2018-2022, by mont" sheetId="2" r:id="rId2"/>
+    <sheet name="working age deaths" sheetId="4" r:id="rId1"/>
+    <sheet name="SOA by quarter 35-44" sheetId="3" r:id="rId2"/>
+    <sheet name="UCOD full US 2018-2022, by mont" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="42">
   <si>
     <t>Month</t>
   </si>
@@ -116,12 +117,63 @@
   <si>
     <t>vs. 2021 baseline</t>
   </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>48% increase</t>
+  </si>
+  <si>
+    <t>25-64 year olds</t>
+  </si>
+  <si>
+    <t>Now do for 14 and younger</t>
+  </si>
+  <si>
+    <t>Now do for 65 and older to see if it was COVID</t>
+  </si>
+  <si>
+    <t>working age deaths 25-54</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +181,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,18 +219,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,6 +271,4972 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>25-54 year old deaths</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>in 2020-2022</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31075</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F00B-4C5F-9415-216C571BDFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>37392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41830</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33848</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F00B-4C5F-9415-216C571BDFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30809</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29524</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F00B-4C5F-9415-216C571BDFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="921599472"/>
+        <c:axId val="921590832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="921599472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921590832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="921590832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921599472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>65 and older deaths</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$23:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$B$23:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>196870</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>227193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>279358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-111E-44B4-AC7F-FCD3305D3BED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$23:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$C$23:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>281358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210388</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214910</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>212419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>209280</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>231775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-111E-44B4-AC7F-FCD3305D3BED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$23:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$D$23:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>274159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>183849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196146</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198713</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-111E-44B4-AC7F-FCD3305D3BED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="921605232"/>
+        <c:axId val="921598032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="921605232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921598032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="921598032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921605232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>14 and younger</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$39:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$B$39:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00F7-41E0-882C-CA99B6A5D3B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$39:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$C$39:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00F7-41E0-882C-CA99B6A5D3B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$39:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$D$39:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-00F7-41E0-882C-CA99B6A5D3B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="810130000"/>
+        <c:axId val="713463792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="810130000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713463792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="713463792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810130000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>25-64</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> year olds deaths</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28686789151356079"/>
+          <c:y val="5.5555555555555552E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$55:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$B$55:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>61003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72890</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65693</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFF1-4239-913F-D58B9AADA117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$55:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$C$55:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>85097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89720</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72786</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFF1-4239-913F-D58B9AADA117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'working age deaths'!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'working age deaths'!$A$55:$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>may</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'working age deaths'!$D$55:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>88452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60618</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFF1-4239-913F-D58B9AADA117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="810129040"/>
+        <c:axId val="810143920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="810129040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810143920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="810143920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810129040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC39BEF3-BC8B-4098-8C4A-6245200D2FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E057887C-6041-4314-8A0B-3A7515E2DC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08970390-1CA7-44AD-9CB1-D3AD51135661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255D07E4-FD83-4382-A2E7-CF926E6BB9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,7 +5807,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{869E4A5B-7F94-4842-A634-2263C3286C3C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{869E4A5B-7F94-4842-A634-2263C3286C3C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:S9" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" numFmtId="14" showAll="0">
@@ -1243,6 +6294,764 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78830D51-F390-4986-9C67-5052D49B363E}">
+  <dimension ref="A1:O66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5">
+        <v>26985</v>
+      </c>
+      <c r="C2" s="5">
+        <v>37392</v>
+      </c>
+      <c r="D2" s="5">
+        <v>39449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
+        <v>25134</v>
+      </c>
+      <c r="C3" s="5">
+        <v>30424</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>27993</v>
+      </c>
+      <c r="C4" s="5">
+        <v>31891</v>
+      </c>
+      <c r="D4" s="5">
+        <v>30383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5">
+        <v>32359</v>
+      </c>
+      <c r="C5" s="5">
+        <v>31564</v>
+      </c>
+      <c r="D5" s="5">
+        <v>28221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
+        <v>32200</v>
+      </c>
+      <c r="C6" s="5">
+        <v>32174</v>
+      </c>
+      <c r="D6" s="5">
+        <v>29503</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30701</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30970</v>
+      </c>
+      <c r="D7" s="5">
+        <v>29180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
+        <v>33779</v>
+      </c>
+      <c r="C8" s="5">
+        <v>32887</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5">
+        <v>32582</v>
+      </c>
+      <c r="C9" s="5">
+        <v>41830</v>
+      </c>
+      <c r="D9" s="5">
+        <v>29907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5">
+        <v>29544</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43395</v>
+      </c>
+      <c r="D10" s="6">
+        <v>29136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5">
+        <v>30113</v>
+      </c>
+      <c r="C11" s="5">
+        <v>38197</v>
+      </c>
+      <c r="D11" s="5">
+        <v>29325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>31075</v>
+      </c>
+      <c r="C12" s="5">
+        <v>33848</v>
+      </c>
+      <c r="D12" s="5">
+        <v>29524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5">
+        <v>35420</v>
+      </c>
+      <c r="C13" s="5">
+        <v>37260</v>
+      </c>
+      <c r="D13" s="5">
+        <v>31626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5">
+        <v>196870</v>
+      </c>
+      <c r="C23" s="5">
+        <v>281358</v>
+      </c>
+      <c r="D23" s="5">
+        <v>274159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="5">
+        <v>181659</v>
+      </c>
+      <c r="C24" s="5">
+        <v>208155</v>
+      </c>
+      <c r="D24" s="5">
+        <v>216117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5">
+        <v>200298</v>
+      </c>
+      <c r="C25" s="5">
+        <v>195527</v>
+      </c>
+      <c r="D25" s="5">
+        <v>196953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5">
+        <v>243018</v>
+      </c>
+      <c r="C26" s="5">
+        <v>182795</v>
+      </c>
+      <c r="D26" s="5">
+        <v>180100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="5">
+        <v>204936</v>
+      </c>
+      <c r="C27" s="5">
+        <v>182872</v>
+      </c>
+      <c r="D27" s="5">
+        <v>185719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5">
+        <v>178982</v>
+      </c>
+      <c r="C28" s="5">
+        <v>173162</v>
+      </c>
+      <c r="D28" s="5">
+        <v>180286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5">
+        <v>199587</v>
+      </c>
+      <c r="C29" s="5">
+        <v>182354</v>
+      </c>
+      <c r="D29" s="5">
+        <v>189191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>200213</v>
+      </c>
+      <c r="C30" s="5">
+        <v>210388</v>
+      </c>
+      <c r="D30" s="5">
+        <v>189915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5">
+        <v>186706</v>
+      </c>
+      <c r="C31" s="5">
+        <v>214910</v>
+      </c>
+      <c r="D31" s="5">
+        <v>183849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5">
+        <v>201311</v>
+      </c>
+      <c r="C32" s="5">
+        <v>212419</v>
+      </c>
+      <c r="D32" s="5">
+        <v>196146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5">
+        <v>227193</v>
+      </c>
+      <c r="C33" s="5">
+        <v>209280</v>
+      </c>
+      <c r="D33" s="5">
+        <v>198713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="5">
+        <v>279358</v>
+      </c>
+      <c r="C34" s="5">
+        <v>231775</v>
+      </c>
+      <c r="D34" s="5">
+        <v>225315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2232</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2056</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2082</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1848</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1989</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2078</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1902</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2098</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2139</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2233</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2203</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2175</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2225</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2251</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1969</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2276</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1974</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2250</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2032</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2173</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1937</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2080</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1860</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2320</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B54" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2022</v>
+      </c>
+      <c r="O54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="5">
+        <v>61003</v>
+      </c>
+      <c r="C55" s="5">
+        <v>85097</v>
+      </c>
+      <c r="D55" s="5">
+        <v>88452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="5">
+        <v>56898</v>
+      </c>
+      <c r="C56" s="5">
+        <v>68041</v>
+      </c>
+      <c r="D56" s="5">
+        <v>68040</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="5">
+        <v>62891</v>
+      </c>
+      <c r="C57" s="5">
+        <v>68389</v>
+      </c>
+      <c r="D57" s="5">
+        <v>64915</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="5">
+        <v>72890</v>
+      </c>
+      <c r="C58" s="5">
+        <v>67118</v>
+      </c>
+      <c r="D58" s="5">
+        <v>59809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="5">
+        <v>68716</v>
+      </c>
+      <c r="C59" s="5">
+        <v>67951</v>
+      </c>
+      <c r="D59" s="5">
+        <v>61854</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="5">
+        <v>64321</v>
+      </c>
+      <c r="C60" s="5">
+        <v>64718</v>
+      </c>
+      <c r="D60" s="5">
+        <v>61022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="5">
+        <v>71806</v>
+      </c>
+      <c r="C61" s="5">
+        <v>68058</v>
+      </c>
+      <c r="D61" s="5">
+        <v>63937</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="5">
+        <v>69741</v>
+      </c>
+      <c r="C62" s="5">
+        <v>85705</v>
+      </c>
+      <c r="D62" s="5">
+        <v>62255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="5">
+        <v>63509</v>
+      </c>
+      <c r="C63" s="6">
+        <v>89720</v>
+      </c>
+      <c r="D63" s="6">
+        <v>60618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="5">
+        <v>65693</v>
+      </c>
+      <c r="C64" s="5">
+        <v>80095</v>
+      </c>
+      <c r="D64" s="5">
+        <v>62077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="5">
+        <v>68616</v>
+      </c>
+      <c r="C65" s="5">
+        <v>72786</v>
+      </c>
+      <c r="D65" s="5">
+        <v>62703</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="5">
+        <v>80909</v>
+      </c>
+      <c r="C66" s="5">
+        <v>80722</v>
+      </c>
+      <c r="D66" s="5">
+        <v>68350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED020FF2-E090-4855-9723-6D954E045247}">
   <dimension ref="A3:S12"/>
   <sheetViews>
@@ -1277,10 +7086,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1352,125 +7161,125 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>80380</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>20214</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>20476</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>21073</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>21223</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>82986</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>22442</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>26848</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>27767</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>27433</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>104490</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>28490</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>28212</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>35588</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>32649</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <v>124939</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8">
         <v>111605</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8">
         <v>504400</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>80380</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>20214</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>20476</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>21073</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>21223</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>82986</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>22442</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>26848</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>27767</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>27433</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>104490</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>28490</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>28212</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>35588</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>32649</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>124939</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9">
         <v>111605</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9">
         <v>504400</v>
       </c>
     </row>
@@ -1521,7 +7330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24721412-9A22-40B4-8B20-66069CF2AAAC}">
   <dimension ref="A1:E61"/>
   <sheetViews>
@@ -1556,16 +7365,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43101</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>43101</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
@@ -1573,16 +7382,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>43132</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>43132</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
@@ -1590,16 +7399,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>43160</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>43160</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
@@ -1607,16 +7416,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>43191</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>43191</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
@@ -1624,16 +7433,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>43221</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>43221</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
@@ -1641,16 +7450,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>43252</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>43252</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
@@ -1658,16 +7467,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>43282</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>43282</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
@@ -1675,16 +7484,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>43313</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>43313</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
@@ -1692,16 +7501,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>43344</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>43344</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
@@ -1709,16 +7518,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>43374</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>43374</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
@@ -1726,16 +7535,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>43405</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>43405</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
@@ -1743,16 +7552,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>43435</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>43435</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13">
@@ -1760,16 +7569,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>43466</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>43466</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14">
@@ -1777,16 +7586,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43497</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>43497</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15">
@@ -1794,16 +7603,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>43525</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>43525</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16">
@@ -1811,16 +7620,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>43556</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>43556</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
@@ -1828,16 +7637,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>43586</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>43586</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
@@ -1845,16 +7654,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>43617</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>43617</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19">
@@ -1862,16 +7671,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>43647</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>43647</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20">
@@ -1879,16 +7688,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>43678</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>43678</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21">
@@ -1896,16 +7705,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>43709</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>43709</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22">
@@ -1913,16 +7722,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>43739</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>43739</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23">
@@ -1930,16 +7739,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>43770</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>43770</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24">
@@ -1947,16 +7756,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>43800</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>43800</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25">
@@ -1964,16 +7773,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>43831</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>43831</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26">
@@ -1981,16 +7790,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>43862</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>43862</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27">
@@ -1998,16 +7807,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>43891</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>43891</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28">
@@ -2015,16 +7824,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>43922</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>43922</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>6</v>
       </c>
       <c r="E29">
@@ -2032,16 +7841,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>43952</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>43952</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30">
@@ -2049,16 +7858,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>43983</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>43983</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31">
@@ -2066,16 +7875,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>44013</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>44013</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32">
@@ -2083,16 +7892,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>44044</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>44044</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33">
@@ -2100,16 +7909,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>44075</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>44075</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34">
@@ -2117,16 +7926,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>44105</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>44105</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35">
@@ -2134,16 +7943,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>44136</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>44136</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36">
@@ -2151,16 +7960,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>44166</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>44166</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37">
@@ -2168,16 +7977,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>44197</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>44197</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38">
@@ -2185,16 +7994,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>44228</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>44228</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39">
@@ -2202,16 +8011,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>44256</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>44256</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40">
@@ -2219,16 +8028,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>44287</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>44287</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41">
@@ -2236,16 +8045,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>44317</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>44317</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42">
@@ -2253,16 +8062,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>44348</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>44348</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43">
@@ -2270,16 +8079,16 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>44378</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>44378</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44">
@@ -2287,16 +8096,16 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44409</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>44409</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45">
@@ -2304,16 +8113,16 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44440</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>44440</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>6</v>
       </c>
       <c r="E46">
@@ -2321,16 +8130,16 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>44470</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>44470</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47">
@@ -2338,16 +8147,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>44501</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>44501</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48">
@@ -2355,16 +8164,16 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>44531</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>44531</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>6</v>
       </c>
       <c r="E49">
@@ -2372,16 +8181,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>44562</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>44562</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50">
@@ -2389,16 +8198,16 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>44593</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>44593</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51">
@@ -2406,16 +8215,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>44621</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>44621</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>6</v>
       </c>
       <c r="E52">
@@ -2423,16 +8232,16 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>44652</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>44652</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53">
@@ -2440,16 +8249,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>44682</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>44682</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>6</v>
       </c>
       <c r="E54">
@@ -2457,16 +8266,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>44713</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>44713</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>6</v>
       </c>
       <c r="E55">
@@ -2474,16 +8283,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>44743</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>44743</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>6</v>
       </c>
       <c r="E56">
@@ -2491,16 +8300,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>44774</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>44774</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57">
@@ -2508,16 +8317,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>44805</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>44805</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>6</v>
       </c>
       <c r="E58">
@@ -2525,16 +8334,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>44835</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>44835</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59">
@@ -2542,16 +8351,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>44866</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>44866</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60">
@@ -2559,16 +8368,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>44896</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>44896</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>6</v>
       </c>
       <c r="E61">

--- a/debate/SOA report 2021 quarterly mortality.xlsx
+++ b/debate/SOA report 2021 quarterly mortality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E4981-AA1B-48D8-A3FE-3C6010335F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ECBFFA-FC7B-493A-A995-1654743722CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="working age deaths" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -115,9 +115,6 @@
     <t>vs, 2020 baseline</t>
   </si>
   <si>
-    <t>vs. 2021 baseline</t>
-  </si>
-  <si>
     <t>dec</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>working age deaths 25-54</t>
+  </si>
+  <si>
+    <t>vs. 2019 baseline</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -243,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5319,7 +5320,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Ten-Year Age Groups Code" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="1">
+        <s v="35-44"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Deaths" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6174" maxValue="13038"/>
@@ -5387,427 +5390,427 @@
     <x v="0"/>
     <d v="2018-01-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="7055"/>
   </r>
   <r>
     <x v="1"/>
     <d v="2018-02-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6244"/>
   </r>
   <r>
     <x v="2"/>
     <d v="2018-03-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6745"/>
   </r>
   <r>
     <x v="3"/>
     <d v="2018-04-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6430"/>
   </r>
   <r>
     <x v="4"/>
     <d v="2018-05-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6602"/>
   </r>
   <r>
     <x v="5"/>
     <d v="2018-06-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6842"/>
   </r>
   <r>
     <x v="6"/>
     <d v="2018-07-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6923"/>
   </r>
   <r>
     <x v="7"/>
     <d v="2018-08-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6875"/>
   </r>
   <r>
     <x v="8"/>
     <d v="2018-09-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6656"/>
   </r>
   <r>
     <x v="9"/>
     <d v="2018-10-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6681"/>
   </r>
   <r>
     <x v="10"/>
     <d v="2018-11-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6551"/>
   </r>
   <r>
     <x v="11"/>
     <d v="2018-12-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6776"/>
   </r>
   <r>
     <x v="12"/>
     <d v="2019-01-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6981"/>
   </r>
   <r>
     <x v="13"/>
     <d v="2019-02-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6174"/>
   </r>
   <r>
     <x v="14"/>
     <d v="2019-03-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="7059"/>
   </r>
   <r>
     <x v="15"/>
     <d v="2019-04-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6775"/>
   </r>
   <r>
     <x v="16"/>
     <d v="2019-05-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6920"/>
   </r>
   <r>
     <x v="17"/>
     <d v="2019-06-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6781"/>
   </r>
   <r>
     <x v="18"/>
     <d v="2019-07-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="7043"/>
   </r>
   <r>
     <x v="19"/>
     <d v="2019-08-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="7143"/>
   </r>
   <r>
     <x v="20"/>
     <d v="2019-09-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6887"/>
   </r>
   <r>
     <x v="21"/>
     <d v="2019-10-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6984"/>
   </r>
   <r>
     <x v="22"/>
     <d v="2019-11-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6891"/>
   </r>
   <r>
     <x v="23"/>
     <d v="2019-12-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="7348"/>
   </r>
   <r>
     <x v="24"/>
     <d v="2020-01-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="7552"/>
   </r>
   <r>
     <x v="25"/>
     <d v="2020-02-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="6896"/>
   </r>
   <r>
     <x v="26"/>
     <d v="2020-03-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="7994"/>
   </r>
   <r>
     <x v="27"/>
     <d v="2020-04-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9003"/>
   </r>
   <r>
     <x v="28"/>
     <d v="2020-05-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9238"/>
   </r>
   <r>
     <x v="29"/>
     <d v="2020-06-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8607"/>
   </r>
   <r>
     <x v="30"/>
     <d v="2020-07-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9874"/>
   </r>
   <r>
     <x v="31"/>
     <d v="2020-08-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9390"/>
   </r>
   <r>
     <x v="32"/>
     <d v="2020-09-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8503"/>
   </r>
   <r>
     <x v="33"/>
     <d v="2020-10-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8669"/>
   </r>
   <r>
     <x v="34"/>
     <d v="2020-11-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8945"/>
   </r>
   <r>
     <x v="35"/>
     <d v="2020-12-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9819"/>
   </r>
   <r>
     <x v="36"/>
     <d v="2021-01-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="10566"/>
   </r>
   <r>
     <x v="37"/>
     <d v="2021-02-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8629"/>
   </r>
   <r>
     <x v="38"/>
     <d v="2021-03-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9295"/>
   </r>
   <r>
     <x v="39"/>
     <d v="2021-04-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9322"/>
   </r>
   <r>
     <x v="40"/>
     <d v="2021-05-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9485"/>
   </r>
   <r>
     <x v="41"/>
     <d v="2021-06-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9405"/>
   </r>
   <r>
     <x v="42"/>
     <d v="2021-07-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9936"/>
   </r>
   <r>
     <x v="43"/>
     <d v="2021-08-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="12614"/>
   </r>
   <r>
     <x v="44"/>
     <d v="2021-09-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="13038"/>
   </r>
   <r>
     <x v="45"/>
     <d v="2021-10-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="11408"/>
   </r>
   <r>
     <x v="46"/>
     <d v="2021-11-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="10219"/>
   </r>
   <r>
     <x v="47"/>
     <d v="2021-12-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="11022"/>
   </r>
   <r>
     <x v="48"/>
     <d v="2022-01-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="11592"/>
   </r>
   <r>
     <x v="49"/>
     <d v="2022-02-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9148"/>
   </r>
   <r>
     <x v="50"/>
     <d v="2022-03-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9105"/>
   </r>
   <r>
     <x v="51"/>
     <d v="2022-04-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8535"/>
   </r>
   <r>
     <x v="52"/>
     <d v="2022-05-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9076"/>
   </r>
   <r>
     <x v="53"/>
     <d v="2022-06-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8992"/>
   </r>
   <r>
     <x v="54"/>
     <d v="2022-07-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9436"/>
   </r>
   <r>
     <x v="55"/>
     <d v="2022-08-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9196"/>
   </r>
   <r>
     <x v="56"/>
     <d v="2022-09-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8904"/>
   </r>
   <r>
     <x v="57"/>
     <d v="2022-10-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="8887"/>
   </r>
   <r>
     <x v="58"/>
     <d v="2022-11-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9030"/>
   </r>
   <r>
     <x v="59"/>
     <d v="2022-12-01T00:00:00"/>
     <x v="0"/>
-    <s v="35-44"/>
+    <x v="0"/>
     <n v="9704"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{869E4A5B-7F94-4842-A634-2263C3286C3C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{869E4A5B-7F94-4842-A634-2263C3286C3C}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:S9" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" numFmtId="14" showAll="0">
@@ -5882,7 +5885,12 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="15">
@@ -6297,13 +6305,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78830D51-F390-4986-9C67-5052D49B363E}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="4">
         <v>2020</v>
       </c>
@@ -6314,9 +6322,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5">
         <v>26985</v>
@@ -6328,9 +6336,9 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5">
         <v>25134</v>
@@ -6342,9 +6350,9 @@
         <v>30884</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5">
         <v>27993</v>
@@ -6356,9 +6364,9 @@
         <v>30383</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5">
         <v>32359</v>
@@ -6370,9 +6378,9 @@
         <v>28221</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5">
         <v>32200</v>
@@ -6384,12 +6392,12 @@
         <v>29503</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <v>30701</v>
@@ -6401,9 +6409,9 @@
         <v>29180</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>33779</v>
@@ -6415,9 +6423,9 @@
         <v>30809</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5">
         <v>32582</v>
@@ -6429,9 +6437,9 @@
         <v>29907</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
         <v>29544</v>
@@ -6443,9 +6451,9 @@
         <v>29136</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>30113</v>
@@ -6457,9 +6465,9 @@
         <v>29325</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5">
         <v>31075</v>
@@ -6471,9 +6479,9 @@
         <v>29524</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5">
         <v>35420</v>
@@ -6485,17 +6493,17 @@
         <v>31626</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>2020</v>
       </c>
@@ -6506,9 +6514,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5">
         <v>196870</v>
@@ -6520,9 +6528,9 @@
         <v>274159</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5">
         <v>181659</v>
@@ -6534,9 +6542,9 @@
         <v>216117</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5">
         <v>200298</v>
@@ -6548,9 +6556,9 @@
         <v>196953</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="5">
         <v>243018</v>
@@ -6562,9 +6570,9 @@
         <v>180100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5">
         <v>204936</v>
@@ -6576,9 +6584,9 @@
         <v>185719</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5">
         <v>178982</v>
@@ -6590,9 +6598,9 @@
         <v>180286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5">
         <v>199587</v>
@@ -6604,9 +6612,9 @@
         <v>189191</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5">
         <v>200213</v>
@@ -6618,9 +6626,9 @@
         <v>189915</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5">
         <v>186706</v>
@@ -6632,9 +6640,9 @@
         <v>183849</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5">
         <v>201311</v>
@@ -6646,9 +6654,9 @@
         <v>196146</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="5">
         <v>227193</v>
@@ -6660,9 +6668,9 @@
         <v>198713</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="5">
         <v>279358</v>
@@ -6674,12 +6682,12 @@
         <v>225315</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>2020</v>
       </c>
@@ -6690,9 +6698,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="5">
         <v>2232</v>
@@ -6704,9 +6712,9 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="5">
         <v>2082</v>
@@ -6718,9 +6726,9 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="5">
         <v>1989</v>
@@ -6732,9 +6740,9 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="5">
         <v>1902</v>
@@ -6746,9 +6754,9 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="5">
         <v>2139</v>
@@ -6760,9 +6768,9 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="5">
         <v>2203</v>
@@ -6774,9 +6782,9 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="5">
         <v>2225</v>
@@ -6788,9 +6796,9 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="5">
         <v>1969</v>
@@ -6802,9 +6810,9 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="5">
         <v>1974</v>
@@ -6816,9 +6824,9 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="5">
         <v>2032</v>
@@ -6830,9 +6838,9 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="5">
         <v>1937</v>
@@ -6844,9 +6852,9 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" s="5">
         <v>1860</v>
@@ -6858,12 +6866,12 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>2020</v>
       </c>
@@ -6874,12 +6882,12 @@
         <v>2022</v>
       </c>
       <c r="O54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="5">
         <v>61003</v>
@@ -6891,9 +6899,9 @@
         <v>88452</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="5">
         <v>56898</v>
@@ -6905,9 +6913,9 @@
         <v>68040</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="5">
         <v>62891</v>
@@ -6919,9 +6927,9 @@
         <v>64915</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="5">
         <v>72890</v>
@@ -6933,9 +6941,9 @@
         <v>59809</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" s="5">
         <v>68716</v>
@@ -6947,9 +6955,9 @@
         <v>61854</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="5">
         <v>64321</v>
@@ -6961,9 +6969,9 @@
         <v>61022</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" s="5">
         <v>71806</v>
@@ -6975,9 +6983,9 @@
         <v>63937</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" s="5">
         <v>69741</v>
@@ -6989,9 +6997,9 @@
         <v>62255</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="5">
         <v>63509</v>
@@ -7003,9 +7011,9 @@
         <v>60618</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" s="5">
         <v>65693</v>
@@ -7017,9 +7025,9 @@
         <v>62077</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="5">
         <v>68616</v>
@@ -7031,9 +7039,9 @@
         <v>62703</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="5">
         <v>80909</v>
@@ -7055,37 +7063,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED020FF2-E090-4855-9723-6D954E045247}">
   <dimension ref="A3:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="34" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="46" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="58" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="46" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="58" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7093,7 +7101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -7122,7 +7130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -7160,130 +7168,130 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>80380</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>20214</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>20476</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>21073</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>21223</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>82986</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>22442</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <v>26848</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>27767</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <v>27433</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>104490</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>28490</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <v>28212</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <v>35588</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <v>32649</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="8">
         <v>124939</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="8">
         <v>111605</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="8">
         <v>504400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>80380</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>20214</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>20476</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>21073</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>21223</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>82986</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <v>22442</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <v>26848</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>27767</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="8">
         <v>27433</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>104490</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>28490</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="8">
         <v>28212</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="8">
         <v>35588</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="8">
         <v>32649</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="8">
         <v>124939</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="8">
         <v>111605</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="8">
         <v>504400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>23</v>
       </c>
@@ -7304,9 +7312,9 @@
         <v>1.1901359676302263</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M12">
         <f>M9/C9</f>
@@ -7335,19 +7343,19 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E61"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7364,7 +7372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43101</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43132</v>
       </c>
@@ -7398,7 +7406,7 @@
         <v>6244</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43160</v>
       </c>
@@ -7415,7 +7423,7 @@
         <v>6745</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43191</v>
       </c>
@@ -7432,7 +7440,7 @@
         <v>6430</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43221</v>
       </c>
@@ -7449,7 +7457,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43252</v>
       </c>
@@ -7466,7 +7474,7 @@
         <v>6842</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43282</v>
       </c>
@@ -7483,7 +7491,7 @@
         <v>6923</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43313</v>
       </c>
@@ -7500,7 +7508,7 @@
         <v>6875</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43344</v>
       </c>
@@ -7517,7 +7525,7 @@
         <v>6656</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43374</v>
       </c>
@@ -7534,7 +7542,7 @@
         <v>6681</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43405</v>
       </c>
@@ -7551,7 +7559,7 @@
         <v>6551</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43435</v>
       </c>
@@ -7568,7 +7576,7 @@
         <v>6776</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43466</v>
       </c>
@@ -7585,7 +7593,7 @@
         <v>6981</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43497</v>
       </c>
@@ -7602,7 +7610,7 @@
         <v>6174</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43525</v>
       </c>
@@ -7619,7 +7627,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43556</v>
       </c>
@@ -7636,7 +7644,7 @@
         <v>6775</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43586</v>
       </c>
@@ -7653,7 +7661,7 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43617</v>
       </c>
@@ -7670,7 +7678,7 @@
         <v>6781</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43647</v>
       </c>
@@ -7687,7 +7695,7 @@
         <v>7043</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43678</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43709</v>
       </c>
@@ -7721,7 +7729,7 @@
         <v>6887</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43739</v>
       </c>
@@ -7738,7 +7746,7 @@
         <v>6984</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43770</v>
       </c>
@@ -7755,7 +7763,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43800</v>
       </c>
@@ -7772,7 +7780,7 @@
         <v>7348</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43831</v>
       </c>
@@ -7789,7 +7797,7 @@
         <v>7552</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43862</v>
       </c>
@@ -7806,7 +7814,7 @@
         <v>6896</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43891</v>
       </c>
@@ -7823,7 +7831,7 @@
         <v>7994</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43922</v>
       </c>
@@ -7840,7 +7848,7 @@
         <v>9003</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43952</v>
       </c>
@@ -7857,7 +7865,7 @@
         <v>9238</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43983</v>
       </c>
@@ -7874,7 +7882,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44013</v>
       </c>
@@ -7891,7 +7899,7 @@
         <v>9874</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44044</v>
       </c>
@@ -7908,7 +7916,7 @@
         <v>9390</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44075</v>
       </c>
@@ -7925,7 +7933,7 @@
         <v>8503</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44105</v>
       </c>
@@ -7942,7 +7950,7 @@
         <v>8669</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44136</v>
       </c>
@@ -7959,7 +7967,7 @@
         <v>8945</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44166</v>
       </c>
@@ -7976,7 +7984,7 @@
         <v>9819</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44197</v>
       </c>
@@ -7993,7 +8001,7 @@
         <v>10566</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44228</v>
       </c>
@@ -8010,7 +8018,7 @@
         <v>8629</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44256</v>
       </c>
@@ -8027,7 +8035,7 @@
         <v>9295</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44287</v>
       </c>
@@ -8044,7 +8052,7 @@
         <v>9322</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44317</v>
       </c>
@@ -8061,7 +8069,7 @@
         <v>9485</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44348</v>
       </c>
@@ -8078,7 +8086,7 @@
         <v>9405</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44378</v>
       </c>
@@ -8095,7 +8103,7 @@
         <v>9936</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44409</v>
       </c>
@@ -8112,7 +8120,7 @@
         <v>12614</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44440</v>
       </c>
@@ -8129,7 +8137,7 @@
         <v>13038</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44470</v>
       </c>
@@ -8146,7 +8154,7 @@
         <v>11408</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44501</v>
       </c>
@@ -8163,7 +8171,7 @@
         <v>10219</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44531</v>
       </c>
@@ -8180,7 +8188,7 @@
         <v>11022</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44562</v>
       </c>
@@ -8197,7 +8205,7 @@
         <v>11592</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44593</v>
       </c>
@@ -8214,7 +8222,7 @@
         <v>9148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44621</v>
       </c>
@@ -8231,7 +8239,7 @@
         <v>9105</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44652</v>
       </c>
@@ -8248,7 +8256,7 @@
         <v>8535</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44682</v>
       </c>
@@ -8265,7 +8273,7 @@
         <v>9076</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44713</v>
       </c>
@@ -8282,7 +8290,7 @@
         <v>8992</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44743</v>
       </c>
@@ -8299,7 +8307,7 @@
         <v>9436</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44774</v>
       </c>
@@ -8316,7 +8324,7 @@
         <v>9196</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44805</v>
       </c>
@@ -8333,7 +8341,7 @@
         <v>8904</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44835</v>
       </c>
@@ -8350,7 +8358,7 @@
         <v>8887</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44866</v>
       </c>
@@ -8367,7 +8375,7 @@
         <v>9030</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44896</v>
       </c>
